--- a/data/pca/factorExposure/factorExposure_2011-12-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01165209312631078</v>
+        <v>0.01191652932652966</v>
       </c>
       <c r="C2">
-        <v>-0.03028349480482604</v>
+        <v>0.02479498578202897</v>
       </c>
       <c r="D2">
-        <v>-0.01992998216709081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02236363743652676</v>
+      </c>
+      <c r="E2">
+        <v>-0.01119493930579104</v>
+      </c>
+      <c r="F2">
+        <v>-0.02636429016388009</v>
+      </c>
+      <c r="G2">
+        <v>0.002881727111288137</v>
+      </c>
+      <c r="H2">
+        <v>0.02859270266569975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07533014901922226</v>
+        <v>0.0879068935380846</v>
       </c>
       <c r="C4">
-        <v>-0.05123305052183372</v>
+        <v>0.03470189156775375</v>
       </c>
       <c r="D4">
-        <v>-0.08320565940007699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07030581045657706</v>
+      </c>
+      <c r="E4">
+        <v>-0.003995291142468976</v>
+      </c>
+      <c r="F4">
+        <v>-0.04323726137617415</v>
+      </c>
+      <c r="G4">
+        <v>-0.0125660917292769</v>
+      </c>
+      <c r="H4">
+        <v>-0.03921312125019584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1103974957710556</v>
+        <v>0.1221239996943862</v>
       </c>
       <c r="C6">
-        <v>-0.04838390138622436</v>
+        <v>0.03302482680564423</v>
       </c>
       <c r="D6">
-        <v>-0.007803533639163568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01243918198093806</v>
+      </c>
+      <c r="E6">
+        <v>0.02867995485378011</v>
+      </c>
+      <c r="F6">
+        <v>-0.05404022023031462</v>
+      </c>
+      <c r="G6">
+        <v>-0.0332169767501844</v>
+      </c>
+      <c r="H6">
+        <v>0.1174942713693604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05545947268372402</v>
+        <v>0.06499802487632883</v>
       </c>
       <c r="C7">
-        <v>-0.02649236329267474</v>
+        <v>0.01299355323826321</v>
       </c>
       <c r="D7">
-        <v>-0.03500000915800739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04948221655390161</v>
+      </c>
+      <c r="E7">
+        <v>-0.03042183075446643</v>
+      </c>
+      <c r="F7">
+        <v>-0.04626116700949773</v>
+      </c>
+      <c r="G7">
+        <v>0.03394819951930506</v>
+      </c>
+      <c r="H7">
+        <v>-0.01068379941078285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04111167671189584</v>
+        <v>0.04432029950689551</v>
       </c>
       <c r="C8">
-        <v>-0.01468106693197537</v>
+        <v>0.01068937574447342</v>
       </c>
       <c r="D8">
-        <v>-0.05814902046166174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02334702949048423</v>
+      </c>
+      <c r="E8">
+        <v>-0.01315947220171391</v>
+      </c>
+      <c r="F8">
+        <v>-0.06859272710850967</v>
+      </c>
+      <c r="G8">
+        <v>-0.05060247042416541</v>
+      </c>
+      <c r="H8">
+        <v>0.01332237249309866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07091493017318756</v>
+        <v>0.08005135328961112</v>
       </c>
       <c r="C9">
-        <v>-0.03879490886395836</v>
+        <v>0.02265876054303994</v>
       </c>
       <c r="D9">
-        <v>-0.07397424993764645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06424346109554778</v>
+      </c>
+      <c r="E9">
+        <v>-0.02273626508864287</v>
+      </c>
+      <c r="F9">
+        <v>-0.0337549005681186</v>
+      </c>
+      <c r="G9">
+        <v>-0.02238428209568614</v>
+      </c>
+      <c r="H9">
+        <v>-0.0442524504502899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03155563252463492</v>
+        <v>0.04481989905412363</v>
       </c>
       <c r="C10">
-        <v>-0.02990163100499725</v>
+        <v>0.05992756341377804</v>
       </c>
       <c r="D10">
-        <v>0.1763101489848833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1748846086456097</v>
+      </c>
+      <c r="E10">
+        <v>-0.04202509275439242</v>
+      </c>
+      <c r="F10">
+        <v>-0.05300733298566736</v>
+      </c>
+      <c r="G10">
+        <v>0.03177438639356275</v>
+      </c>
+      <c r="H10">
+        <v>0.05369034567605988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07296793051012759</v>
+        <v>0.07724788815687408</v>
       </c>
       <c r="C11">
-        <v>-0.04074252772507427</v>
+        <v>0.01978476259685689</v>
       </c>
       <c r="D11">
-        <v>-0.05771591426422457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06538966147719356</v>
+      </c>
+      <c r="E11">
+        <v>0.008055318015941533</v>
+      </c>
+      <c r="F11">
+        <v>-0.03687607683682757</v>
+      </c>
+      <c r="G11">
+        <v>-0.02884794723041607</v>
+      </c>
+      <c r="H11">
+        <v>-0.07442270775563198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06076684839139864</v>
+        <v>0.06967019219487217</v>
       </c>
       <c r="C12">
-        <v>-0.05009456366357613</v>
+        <v>0.03270914007396232</v>
       </c>
       <c r="D12">
-        <v>-0.04646937007288529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04973964275058353</v>
+      </c>
+      <c r="E12">
+        <v>-0.01074615221013443</v>
+      </c>
+      <c r="F12">
+        <v>-0.0251394445574839</v>
+      </c>
+      <c r="G12">
+        <v>-0.01452385722858998</v>
+      </c>
+      <c r="H12">
+        <v>-0.03263363274473138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06758140987573623</v>
+        <v>0.06731701408685604</v>
       </c>
       <c r="C13">
-        <v>-0.03352262416018226</v>
+        <v>0.01685812871516404</v>
       </c>
       <c r="D13">
-        <v>-0.04498325125954455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03935601708732529</v>
+      </c>
+      <c r="E13">
+        <v>-0.01246556973155786</v>
+      </c>
+      <c r="F13">
+        <v>-0.02537907705938655</v>
+      </c>
+      <c r="G13">
+        <v>-0.003535366136372816</v>
+      </c>
+      <c r="H13">
+        <v>-0.05264596052150242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03408727812195626</v>
+        <v>0.03976738176603263</v>
       </c>
       <c r="C14">
-        <v>-0.03155866113644917</v>
+        <v>0.02569273258223769</v>
       </c>
       <c r="D14">
-        <v>0.006302520921569996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01457528765161199</v>
+      </c>
+      <c r="E14">
+        <v>-0.02735680139106874</v>
+      </c>
+      <c r="F14">
+        <v>-0.01933747190701874</v>
+      </c>
+      <c r="G14">
+        <v>-0.02548041091527236</v>
+      </c>
+      <c r="H14">
+        <v>-0.05458335048587272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04186456537334177</v>
+        <v>0.04105077788971256</v>
       </c>
       <c r="C15">
-        <v>-0.008622443258832106</v>
+        <v>0.001592996318088528</v>
       </c>
       <c r="D15">
-        <v>-0.01879576241935185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007091987416639642</v>
+      </c>
+      <c r="E15">
+        <v>-0.03477118300521524</v>
+      </c>
+      <c r="F15">
+        <v>-0.005129438232956649</v>
+      </c>
+      <c r="G15">
+        <v>-0.0328205752465303</v>
+      </c>
+      <c r="H15">
+        <v>-0.0222689559219029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06057850344984946</v>
+        <v>0.07158570988185213</v>
       </c>
       <c r="C16">
-        <v>-0.03874976668730668</v>
+        <v>0.02302255533494845</v>
       </c>
       <c r="D16">
-        <v>-0.05113821661168098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06237016229503076</v>
+      </c>
+      <c r="E16">
+        <v>-0.003085638431665576</v>
+      </c>
+      <c r="F16">
+        <v>-0.03166095763724262</v>
+      </c>
+      <c r="G16">
+        <v>-0.01338769917011054</v>
+      </c>
+      <c r="H16">
+        <v>-0.04893631611132693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06456046234220293</v>
+        <v>0.06286231620846504</v>
       </c>
       <c r="C20">
-        <v>-0.02411531851781204</v>
+        <v>0.006228688194075481</v>
       </c>
       <c r="D20">
-        <v>-0.04654020739402927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04059173895969597</v>
+      </c>
+      <c r="E20">
+        <v>-0.01000617914346298</v>
+      </c>
+      <c r="F20">
+        <v>-0.03140689595292755</v>
+      </c>
+      <c r="G20">
+        <v>-0.02414159648448126</v>
+      </c>
+      <c r="H20">
+        <v>-0.05059589075907545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02886146219455018</v>
+        <v>0.02877624222264608</v>
       </c>
       <c r="C21">
-        <v>0.001441999055052937</v>
+        <v>-0.009092894419875824</v>
       </c>
       <c r="D21">
-        <v>-0.01944895435082175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0202684153655888</v>
+      </c>
+      <c r="E21">
+        <v>-0.04234745651696429</v>
+      </c>
+      <c r="F21">
+        <v>0.002733156861071461</v>
+      </c>
+      <c r="G21">
+        <v>-0.009501487861574317</v>
+      </c>
+      <c r="H21">
+        <v>0.05170798663585762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07784419791416249</v>
+        <v>0.06989909988020458</v>
       </c>
       <c r="C22">
-        <v>-0.05920346272450066</v>
+        <v>0.03244704909346763</v>
       </c>
       <c r="D22">
-        <v>-0.1422317272815303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.09913118313439329</v>
+      </c>
+      <c r="E22">
+        <v>-0.6134233360304902</v>
+      </c>
+      <c r="F22">
+        <v>0.07064229029284554</v>
+      </c>
+      <c r="G22">
+        <v>0.1366351936737943</v>
+      </c>
+      <c r="H22">
+        <v>0.1392900250306843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07883116157458336</v>
+        <v>0.07080433411503577</v>
       </c>
       <c r="C23">
-        <v>-0.05789944073260826</v>
+        <v>0.03112735148165172</v>
       </c>
       <c r="D23">
-        <v>-0.1434999004440029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1001548000930782</v>
+      </c>
+      <c r="E23">
+        <v>-0.615440170703675</v>
+      </c>
+      <c r="F23">
+        <v>0.06984097082205065</v>
+      </c>
+      <c r="G23">
+        <v>0.1317397963658131</v>
+      </c>
+      <c r="H23">
+        <v>0.1343873014722178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07679248076418575</v>
+        <v>0.08161950308780831</v>
       </c>
       <c r="C24">
-        <v>-0.05004100322427427</v>
+        <v>0.02840624282538762</v>
       </c>
       <c r="D24">
-        <v>-0.06162673645736468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06331711210149223</v>
+      </c>
+      <c r="E24">
+        <v>-0.00939766176355112</v>
+      </c>
+      <c r="F24">
+        <v>-0.04222730184111136</v>
+      </c>
+      <c r="G24">
+        <v>-0.02626976013326281</v>
+      </c>
+      <c r="H24">
+        <v>-0.03780805212224279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07491354280445978</v>
+        <v>0.07964858130653055</v>
       </c>
       <c r="C25">
-        <v>-0.05238855822249744</v>
+        <v>0.0325471839468704</v>
       </c>
       <c r="D25">
-        <v>-0.06531450819183418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05247448507543932</v>
+      </c>
+      <c r="E25">
+        <v>-0.0162247472357546</v>
+      </c>
+      <c r="F25">
+        <v>-0.03625476393007734</v>
+      </c>
+      <c r="G25">
+        <v>-0.03751310588146224</v>
+      </c>
+      <c r="H25">
+        <v>-0.0441038181313607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04626473836017979</v>
+        <v>0.04569487398497742</v>
       </c>
       <c r="C26">
-        <v>-0.009177472445996702</v>
+        <v>-0.001365006445194105</v>
       </c>
       <c r="D26">
-        <v>-0.01514037816832894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02089136541040696</v>
+      </c>
+      <c r="E26">
+        <v>-0.0402268565119038</v>
+      </c>
+      <c r="F26">
+        <v>-0.03970520191009371</v>
+      </c>
+      <c r="G26">
+        <v>-0.01057711874868525</v>
+      </c>
+      <c r="H26">
+        <v>-0.04865768641287548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05097852048121317</v>
+        <v>0.07023444172086485</v>
       </c>
       <c r="C28">
-        <v>-0.07266786689124356</v>
+        <v>0.1149160997458852</v>
       </c>
       <c r="D28">
-        <v>0.2988749508361445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.295370471634554</v>
+      </c>
+      <c r="E28">
+        <v>-0.03380135906435962</v>
+      </c>
+      <c r="F28">
+        <v>-0.06025871963104801</v>
+      </c>
+      <c r="G28">
+        <v>-0.02375521724411822</v>
+      </c>
+      <c r="H28">
+        <v>0.04988313414663252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04592125813486466</v>
+        <v>0.04767637240327668</v>
       </c>
       <c r="C29">
-        <v>-0.02898174333453977</v>
+        <v>0.02137751020006214</v>
       </c>
       <c r="D29">
-        <v>-0.00685387326119213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01290077027999458</v>
+      </c>
+      <c r="E29">
+        <v>-0.05855071217971713</v>
+      </c>
+      <c r="F29">
+        <v>-0.02021491537203713</v>
+      </c>
+      <c r="G29">
+        <v>-0.01796462506364823</v>
+      </c>
+      <c r="H29">
+        <v>-0.07429386857203117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1285228812502628</v>
+        <v>0.1280263978692253</v>
       </c>
       <c r="C30">
-        <v>-0.08636085493942923</v>
+        <v>0.05352207066742596</v>
       </c>
       <c r="D30">
-        <v>-0.1014509040421735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08013216608848291</v>
+      </c>
+      <c r="E30">
+        <v>-0.06907496979278095</v>
+      </c>
+      <c r="F30">
+        <v>-0.02520153933542395</v>
+      </c>
+      <c r="G30">
+        <v>-0.06764178233352207</v>
+      </c>
+      <c r="H30">
+        <v>0.03539655323713867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04844302412952178</v>
+        <v>0.05001667704242507</v>
       </c>
       <c r="C31">
-        <v>-0.02260910387520985</v>
+        <v>0.01025036315388192</v>
       </c>
       <c r="D31">
-        <v>-0.02325217396408275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03285698807871362</v>
+      </c>
+      <c r="E31">
+        <v>-0.0228977504951624</v>
+      </c>
+      <c r="F31">
+        <v>-0.008885019899694761</v>
+      </c>
+      <c r="G31">
+        <v>0.006823444616007581</v>
+      </c>
+      <c r="H31">
+        <v>-0.06618640764655652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03682213825911124</v>
+        <v>0.03951643654752229</v>
       </c>
       <c r="C32">
-        <v>-0.02329155289730157</v>
+        <v>0.0211938652901233</v>
       </c>
       <c r="D32">
-        <v>-0.02353589258203159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009845074876029996</v>
+      </c>
+      <c r="E32">
+        <v>-0.05610624189801781</v>
+      </c>
+      <c r="F32">
+        <v>0.002226542645604935</v>
+      </c>
+      <c r="G32">
+        <v>-0.03638408323275226</v>
+      </c>
+      <c r="H32">
+        <v>-0.03050023185743549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0863157779775401</v>
+        <v>0.09483578049828204</v>
       </c>
       <c r="C33">
-        <v>-0.03873850938212527</v>
+        <v>0.019316437463274</v>
       </c>
       <c r="D33">
-        <v>-0.05491416859781181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04821932412953613</v>
+      </c>
+      <c r="E33">
+        <v>-0.01166784905291414</v>
+      </c>
+      <c r="F33">
+        <v>-0.01217160767307222</v>
+      </c>
+      <c r="G33">
+        <v>-0.01071031939469767</v>
+      </c>
+      <c r="H33">
+        <v>-0.0637532603304483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05963976328590693</v>
+        <v>0.06448262660334543</v>
       </c>
       <c r="C34">
-        <v>-0.02380842193143906</v>
+        <v>0.007354961632379484</v>
       </c>
       <c r="D34">
-        <v>-0.05331001025406509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04941169141512585</v>
+      </c>
+      <c r="E34">
+        <v>-0.005325380823336744</v>
+      </c>
+      <c r="F34">
+        <v>-0.02462692143757932</v>
+      </c>
+      <c r="G34">
+        <v>-0.01764456753490685</v>
+      </c>
+      <c r="H34">
+        <v>-0.05266666470833054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03774619197237838</v>
+        <v>0.03918864688629967</v>
       </c>
       <c r="C35">
-        <v>-0.007919017301036557</v>
+        <v>0.001295454607767798</v>
       </c>
       <c r="D35">
-        <v>-0.01590609288504907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01350010159689123</v>
+      </c>
+      <c r="E35">
+        <v>-0.02013254256680168</v>
+      </c>
+      <c r="F35">
+        <v>0.01465163287143298</v>
+      </c>
+      <c r="G35">
+        <v>0.001279508898458834</v>
+      </c>
+      <c r="H35">
+        <v>-0.02161173737120025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02525208102625055</v>
+        <v>0.02984833363039857</v>
       </c>
       <c r="C36">
-        <v>-0.01802383059965307</v>
+        <v>0.01358447499556158</v>
       </c>
       <c r="D36">
-        <v>-0.02028145019271087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01671941671933383</v>
+      </c>
+      <c r="E36">
+        <v>-0.02652003161481313</v>
+      </c>
+      <c r="F36">
+        <v>-0.02990245765584499</v>
+      </c>
+      <c r="G36">
+        <v>-0.003349170225954845</v>
+      </c>
+      <c r="H36">
+        <v>-0.04306632467407977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04270716021633912</v>
+        <v>0.04495112584144249</v>
       </c>
       <c r="C38">
-        <v>-0.002190491634998017</v>
+        <v>-0.005026749459264468</v>
       </c>
       <c r="D38">
-        <v>-0.0211730353767058</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02104278352334528</v>
+      </c>
+      <c r="E38">
+        <v>-0.05263419242290357</v>
+      </c>
+      <c r="F38">
+        <v>0.0002436091857135905</v>
+      </c>
+      <c r="G38">
+        <v>-0.008392790525210962</v>
+      </c>
+      <c r="H38">
+        <v>-0.02070831094232574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09123986146143255</v>
+        <v>0.09966464206965268</v>
       </c>
       <c r="C39">
-        <v>-0.06749732446602696</v>
+        <v>0.04417525848567247</v>
       </c>
       <c r="D39">
-        <v>-0.06093162635392441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07046500941152853</v>
+      </c>
+      <c r="E39">
+        <v>-0.001140008477235085</v>
+      </c>
+      <c r="F39">
+        <v>-0.002200225078871807</v>
+      </c>
+      <c r="G39">
+        <v>-0.04907862080686667</v>
+      </c>
+      <c r="H39">
+        <v>-0.03994413545998534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08019391956853218</v>
+        <v>0.06321781601079053</v>
       </c>
       <c r="C40">
-        <v>-0.03425459651161757</v>
+        <v>0.00469148911986883</v>
       </c>
       <c r="D40">
-        <v>-0.009210292302018438</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03246306519370958</v>
+      </c>
+      <c r="E40">
+        <v>-0.04677901206100385</v>
+      </c>
+      <c r="F40">
+        <v>0.04143871645814675</v>
+      </c>
+      <c r="G40">
+        <v>-0.02408440377808179</v>
+      </c>
+      <c r="H40">
+        <v>0.07822269937548326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04457874837194847</v>
+        <v>0.04602288605629706</v>
       </c>
       <c r="C41">
-        <v>-0.005163439643426232</v>
+        <v>-0.005730990442923139</v>
       </c>
       <c r="D41">
-        <v>-0.03710108081988085</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0320500385211941</v>
+      </c>
+      <c r="E41">
+        <v>-0.002997587708595295</v>
+      </c>
+      <c r="F41">
+        <v>0.0131256957886868</v>
+      </c>
+      <c r="G41">
+        <v>-0.01554944895695265</v>
+      </c>
+      <c r="H41">
+        <v>-0.02230893033894434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05422605818086816</v>
+        <v>0.06101487195876219</v>
       </c>
       <c r="C43">
-        <v>-0.02508511289295011</v>
+        <v>0.01461786284977703</v>
       </c>
       <c r="D43">
-        <v>-0.01563106276060052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02806253076695225</v>
+      </c>
+      <c r="E43">
+        <v>-0.02201645653403504</v>
+      </c>
+      <c r="F43">
+        <v>-0.01806948045136549</v>
+      </c>
+      <c r="G43">
+        <v>0.00738224924632755</v>
+      </c>
+      <c r="H43">
+        <v>-0.06128562425786489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09527421069795065</v>
+        <v>0.09345923054828464</v>
       </c>
       <c r="C44">
-        <v>-0.08172718427210068</v>
+        <v>0.05219161446449023</v>
       </c>
       <c r="D44">
-        <v>-0.07808951088010394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07157376026553086</v>
+      </c>
+      <c r="E44">
+        <v>-0.05745739393181767</v>
+      </c>
+      <c r="F44">
+        <v>-0.09615246580149681</v>
+      </c>
+      <c r="G44">
+        <v>-0.04096389961374797</v>
+      </c>
+      <c r="H44">
+        <v>-0.08418537062980241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02785697267422167</v>
+        <v>0.03546431839604273</v>
       </c>
       <c r="C46">
-        <v>-0.01448397482465286</v>
+        <v>0.008518942149810277</v>
       </c>
       <c r="D46">
-        <v>-0.0321318840568871</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03653995501687988</v>
+      </c>
+      <c r="E46">
+        <v>-0.03420447191188009</v>
+      </c>
+      <c r="F46">
+        <v>-0.01571807223911281</v>
+      </c>
+      <c r="G46">
+        <v>-0.006575238397675162</v>
+      </c>
+      <c r="H46">
+        <v>-0.01926112813434896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03502124603716394</v>
+        <v>0.0413624251175422</v>
       </c>
       <c r="C47">
-        <v>-0.02309384095742287</v>
+        <v>0.01816027211127589</v>
       </c>
       <c r="D47">
-        <v>-0.0007616868583995347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006922363262720521</v>
+      </c>
+      <c r="E47">
+        <v>-0.0431679976584811</v>
+      </c>
+      <c r="F47">
+        <v>0.008945949106285617</v>
+      </c>
+      <c r="G47">
+        <v>0.02606959286873068</v>
+      </c>
+      <c r="H47">
+        <v>-0.02645761823484001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0364005878466768</v>
+        <v>0.03966362086879651</v>
       </c>
       <c r="C48">
-        <v>-0.01856245781778565</v>
+        <v>0.01036030213969653</v>
       </c>
       <c r="D48">
-        <v>-0.03245043571527529</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02048019333294615</v>
+      </c>
+      <c r="E48">
+        <v>-0.0377215932596606</v>
+      </c>
+      <c r="F48">
+        <v>-0.01392702393223851</v>
+      </c>
+      <c r="G48">
+        <v>-0.02242702023174261</v>
+      </c>
+      <c r="H48">
+        <v>-0.02612986099170207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1640728344150394</v>
+        <v>0.1979772434773323</v>
       </c>
       <c r="C49">
-        <v>-0.04540650968061705</v>
+        <v>0.02876023411271782</v>
       </c>
       <c r="D49">
-        <v>-0.007722276648833659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02643665564978667</v>
+      </c>
+      <c r="E49">
+        <v>0.165192662558892</v>
+      </c>
+      <c r="F49">
+        <v>-0.03206676949737662</v>
+      </c>
+      <c r="G49">
+        <v>0.1386991195051462</v>
+      </c>
+      <c r="H49">
+        <v>0.2616243851278052</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04309841604783938</v>
+        <v>0.04616790516399282</v>
       </c>
       <c r="C50">
-        <v>-0.02011195055402665</v>
+        <v>0.009610124044504804</v>
       </c>
       <c r="D50">
-        <v>-0.04397395669598132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03924320082207416</v>
+      </c>
+      <c r="E50">
+        <v>-0.03398436500665193</v>
+      </c>
+      <c r="F50">
+        <v>-0.0104402117046339</v>
+      </c>
+      <c r="G50">
+        <v>-0.001404052282267974</v>
+      </c>
+      <c r="H50">
+        <v>-0.07477500066158103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02994521600442035</v>
+        <v>0.03472396592792442</v>
       </c>
       <c r="C51">
-        <v>-0.01018512815436024</v>
+        <v>0.005884915388658362</v>
       </c>
       <c r="D51">
-        <v>-0.00100522664259645</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001576559217045774</v>
+      </c>
+      <c r="E51">
+        <v>-0.007112631122390706</v>
+      </c>
+      <c r="F51">
+        <v>-0.01008335596198497</v>
+      </c>
+      <c r="G51">
+        <v>0.01383785730331913</v>
+      </c>
+      <c r="H51">
+        <v>0.01893802772876685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1559512997406392</v>
+        <v>0.1606093132788592</v>
       </c>
       <c r="C53">
-        <v>-0.07020620441404053</v>
+        <v>0.04278583685210739</v>
       </c>
       <c r="D53">
-        <v>-0.003514756905436733</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02739628610510059</v>
+      </c>
+      <c r="E53">
+        <v>0.03648896445865264</v>
+      </c>
+      <c r="F53">
+        <v>-0.0005601978018848713</v>
+      </c>
+      <c r="G53">
+        <v>-0.01387457207306223</v>
+      </c>
+      <c r="H53">
+        <v>-0.1982395192823293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05724222005997381</v>
+        <v>0.05845649615062696</v>
       </c>
       <c r="C54">
-        <v>-0.02008000016005113</v>
+        <v>0.01092169243423443</v>
       </c>
       <c r="D54">
-        <v>-0.01592876462581744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01360062264250974</v>
+      </c>
+      <c r="E54">
+        <v>-0.05056426013134538</v>
+      </c>
+      <c r="F54">
+        <v>-0.0196035814870774</v>
+      </c>
+      <c r="G54">
+        <v>-0.04733306288792021</v>
+      </c>
+      <c r="H54">
+        <v>-0.04062066241687826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.102516514167248</v>
+        <v>0.1043438079183018</v>
       </c>
       <c r="C55">
-        <v>-0.04922373741988879</v>
+        <v>0.02939753093615947</v>
       </c>
       <c r="D55">
-        <v>-0.0235400542345933</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03035862656136594</v>
+      </c>
+      <c r="E55">
+        <v>5.067984471459898e-05</v>
+      </c>
+      <c r="F55">
+        <v>-0.01236240365883362</v>
+      </c>
+      <c r="G55">
+        <v>-0.0212587171883047</v>
+      </c>
+      <c r="H55">
+        <v>-0.156813454194893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1526901343085412</v>
+        <v>0.158726951985552</v>
       </c>
       <c r="C56">
-        <v>-0.08080700680571633</v>
+        <v>0.04990580077533106</v>
       </c>
       <c r="D56">
-        <v>-0.00747498452840567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04023260287602531</v>
+      </c>
+      <c r="E56">
+        <v>0.02138188661980885</v>
+      </c>
+      <c r="F56">
+        <v>-0.02056158603285997</v>
+      </c>
+      <c r="G56">
+        <v>-0.01277802629958437</v>
+      </c>
+      <c r="H56">
+        <v>-0.199022036604661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1326982574708464</v>
+        <v>0.1000511662368747</v>
       </c>
       <c r="C58">
-        <v>0.00520492203679161</v>
+        <v>-0.04940471902453333</v>
       </c>
       <c r="D58">
-        <v>-0.0195962684289029</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03153842646234546</v>
+      </c>
+      <c r="E58">
+        <v>-0.1428709626481923</v>
+      </c>
+      <c r="F58">
+        <v>-0.01082574958078407</v>
+      </c>
+      <c r="G58">
+        <v>0.09019997090212922</v>
+      </c>
+      <c r="H58">
+        <v>0.1431835579462874</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1252360396878228</v>
+        <v>0.1471198453033833</v>
       </c>
       <c r="C59">
-        <v>-0.0796750714372397</v>
+        <v>0.11973904874615</v>
       </c>
       <c r="D59">
-        <v>0.3852217938656617</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3519578384155351</v>
+      </c>
+      <c r="E59">
+        <v>-0.03180167854743422</v>
+      </c>
+      <c r="F59">
+        <v>-0.002735902420901669</v>
+      </c>
+      <c r="G59">
+        <v>0.009532516818687151</v>
+      </c>
+      <c r="H59">
+        <v>-0.01142403130564327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2093722794048476</v>
+        <v>0.2382510695859234</v>
       </c>
       <c r="C60">
-        <v>-0.08846076626750411</v>
+        <v>0.05557744491218074</v>
       </c>
       <c r="D60">
-        <v>-0.01812294624725284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04841131944026981</v>
+      </c>
+      <c r="E60">
+        <v>0.1133296937226646</v>
+      </c>
+      <c r="F60">
+        <v>-0.04304835746070782</v>
+      </c>
+      <c r="G60">
+        <v>0.02178191003284063</v>
+      </c>
+      <c r="H60">
+        <v>0.1555654220805893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08260610256824905</v>
+        <v>0.0882615186164596</v>
       </c>
       <c r="C61">
-        <v>-0.04522800895301567</v>
+        <v>0.02800843102974302</v>
       </c>
       <c r="D61">
-        <v>-0.03438607678689296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04281277130354363</v>
+      </c>
+      <c r="E61">
+        <v>-0.003136979764425821</v>
+      </c>
+      <c r="F61">
+        <v>-0.007518467117246927</v>
+      </c>
+      <c r="G61">
+        <v>-0.02120198263812586</v>
+      </c>
+      <c r="H61">
+        <v>-0.06623832664310282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1320246068253573</v>
+        <v>0.1352007210761924</v>
       </c>
       <c r="C62">
-        <v>-0.05623230861910292</v>
+        <v>0.0266128035398374</v>
       </c>
       <c r="D62">
-        <v>-0.01626741951741004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04747952398550558</v>
+      </c>
+      <c r="E62">
+        <v>0.0629150243835742</v>
+      </c>
+      <c r="F62">
+        <v>0.007826467774826103</v>
+      </c>
+      <c r="G62">
+        <v>-0.06538573074964485</v>
+      </c>
+      <c r="H62">
+        <v>-0.2053376827974704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05295804733115351</v>
+        <v>0.05269044594902843</v>
       </c>
       <c r="C63">
-        <v>-0.02268148412119705</v>
+        <v>0.0128845110736299</v>
       </c>
       <c r="D63">
-        <v>-0.02800385135868683</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02067971155193173</v>
+      </c>
+      <c r="E63">
+        <v>-0.04446153822464485</v>
+      </c>
+      <c r="F63">
+        <v>-0.004375630990123711</v>
+      </c>
+      <c r="G63">
+        <v>-0.02820760648777077</v>
+      </c>
+      <c r="H63">
+        <v>-0.03570020220161817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1052527717417577</v>
+        <v>0.1088075918832778</v>
       </c>
       <c r="C64">
-        <v>-0.02812729323660591</v>
+        <v>0.01125836739651329</v>
       </c>
       <c r="D64">
-        <v>-0.03285866489080821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02996817073725324</v>
+      </c>
+      <c r="E64">
+        <v>-0.03322851386579368</v>
+      </c>
+      <c r="F64">
+        <v>-0.04408588474183926</v>
+      </c>
+      <c r="G64">
+        <v>-0.05875033844401138</v>
+      </c>
+      <c r="H64">
+        <v>-0.02358458249796686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1289273626863514</v>
+        <v>0.1290712178128229</v>
       </c>
       <c r="C65">
-        <v>-0.05591586658861521</v>
+        <v>0.03662521361266192</v>
       </c>
       <c r="D65">
-        <v>-0.008047732149793464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01486434191639204</v>
+      </c>
+      <c r="E65">
+        <v>0.01403127379081973</v>
+      </c>
+      <c r="F65">
+        <v>-0.0531304230036844</v>
+      </c>
+      <c r="G65">
+        <v>-0.0619873533658255</v>
+      </c>
+      <c r="H65">
+        <v>0.1362582883125452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1491899600294566</v>
+        <v>0.1520514897169928</v>
       </c>
       <c r="C66">
-        <v>-0.06527457023789923</v>
+        <v>0.0296046494678147</v>
       </c>
       <c r="D66">
-        <v>-0.09958015215372219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1022075281342727</v>
+      </c>
+      <c r="E66">
+        <v>0.02481383588344052</v>
+      </c>
+      <c r="F66">
+        <v>-0.002642921997912159</v>
+      </c>
+      <c r="G66">
+        <v>-0.06299049281256548</v>
+      </c>
+      <c r="H66">
+        <v>-0.09618994192303593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07582555638490435</v>
+        <v>0.08572773501793311</v>
       </c>
       <c r="C67">
-        <v>-0.008233492918107897</v>
+        <v>-0.0025598113262275</v>
       </c>
       <c r="D67">
-        <v>-0.02406229717603302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03170135218031302</v>
+      </c>
+      <c r="E67">
+        <v>-0.02207451386626526</v>
+      </c>
+      <c r="F67">
+        <v>-0.01762774047716507</v>
+      </c>
+      <c r="G67">
+        <v>0.009550207899210884</v>
+      </c>
+      <c r="H67">
+        <v>-0.02095839705625407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05869220519471425</v>
+        <v>0.06451629491880771</v>
       </c>
       <c r="C68">
-        <v>-0.05186273301826535</v>
+        <v>0.08679808829660904</v>
       </c>
       <c r="D68">
-        <v>0.2562362239669376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2622732186398495</v>
+      </c>
+      <c r="E68">
+        <v>-0.04245414762487168</v>
+      </c>
+      <c r="F68">
+        <v>-0.01687807185416262</v>
+      </c>
+      <c r="G68">
+        <v>0.005659529959023949</v>
+      </c>
+      <c r="H68">
+        <v>-0.01698066993263731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05361114803959315</v>
+        <v>0.05293072249755036</v>
       </c>
       <c r="C69">
-        <v>-0.01538700232546395</v>
+        <v>0.003034639986363073</v>
       </c>
       <c r="D69">
-        <v>-0.02612064762809028</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0197499657641693</v>
+      </c>
+      <c r="E69">
+        <v>-0.02478498402774666</v>
+      </c>
+      <c r="F69">
+        <v>0.01237221274306098</v>
+      </c>
+      <c r="G69">
+        <v>0.001177520823356561</v>
+      </c>
+      <c r="H69">
+        <v>-0.04935271620823972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004319752179236949</v>
+        <v>0.02869757069224977</v>
       </c>
       <c r="C70">
-        <v>0.007403692900146931</v>
+        <v>-0.002436503925939568</v>
       </c>
       <c r="D70">
-        <v>0.01427857800457605</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.009137879606359587</v>
+      </c>
+      <c r="E70">
+        <v>0.0177466757802634</v>
+      </c>
+      <c r="F70">
+        <v>-0.004025499340049834</v>
+      </c>
+      <c r="G70">
+        <v>0.0275975710130036</v>
+      </c>
+      <c r="H70">
+        <v>0.03341130003256212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05854243379766313</v>
+        <v>0.06996796254439884</v>
       </c>
       <c r="C71">
-        <v>-0.05199070978874992</v>
+        <v>0.09544137355871671</v>
       </c>
       <c r="D71">
-        <v>0.2939215686368334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2901948899112743</v>
+      </c>
+      <c r="E71">
+        <v>-0.03712196723652456</v>
+      </c>
+      <c r="F71">
+        <v>-0.04708143645750908</v>
+      </c>
+      <c r="G71">
+        <v>-0.001022622500787893</v>
+      </c>
+      <c r="H71">
+        <v>-0.01050699847302629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1431194557584338</v>
+        <v>0.1449810839901347</v>
       </c>
       <c r="C72">
-        <v>-0.05622136443858865</v>
+        <v>0.02981813610687233</v>
       </c>
       <c r="D72">
-        <v>-0.00109890065521887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002616471541590474</v>
+      </c>
+      <c r="E72">
+        <v>0.05751165131398577</v>
+      </c>
+      <c r="F72">
+        <v>0.1574754267061048</v>
+      </c>
+      <c r="G72">
+        <v>-0.1165381746136556</v>
+      </c>
+      <c r="H72">
+        <v>0.01437317172975518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2885828935887895</v>
+        <v>0.2883225484313574</v>
       </c>
       <c r="C73">
-        <v>-0.08941629059300428</v>
+        <v>0.02042425092510683</v>
       </c>
       <c r="D73">
-        <v>-0.03855900330273486</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09922296985027221</v>
+      </c>
+      <c r="E73">
+        <v>0.24006017493438</v>
+      </c>
+      <c r="F73">
+        <v>-0.04857832138787459</v>
+      </c>
+      <c r="G73">
+        <v>0.2498158018884126</v>
+      </c>
+      <c r="H73">
+        <v>0.4111164645238757</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08455937195450142</v>
+        <v>0.09251936933230893</v>
       </c>
       <c r="C74">
-        <v>-0.07386911170075003</v>
+        <v>0.05379906496039476</v>
       </c>
       <c r="D74">
-        <v>-0.01019517842178691</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03978447918744144</v>
+      </c>
+      <c r="E74">
+        <v>0.01054249557726146</v>
+      </c>
+      <c r="F74">
+        <v>0.003435464205969467</v>
+      </c>
+      <c r="G74">
+        <v>0.02280554579017499</v>
+      </c>
+      <c r="H74">
+        <v>-0.1302450936525698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1007012348595372</v>
+        <v>0.1034416855352734</v>
       </c>
       <c r="C75">
-        <v>-0.04671091475305744</v>
+        <v>0.02108936247370016</v>
       </c>
       <c r="D75">
-        <v>-0.01265979565983194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02576766796174622</v>
+      </c>
+      <c r="E75">
+        <v>0.003099873160233292</v>
+      </c>
+      <c r="F75">
+        <v>-0.00151941115467139</v>
+      </c>
+      <c r="G75">
+        <v>0.002404514908877742</v>
+      </c>
+      <c r="H75">
+        <v>-0.1017264168970353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1348396453475293</v>
+        <v>0.1432103029478825</v>
       </c>
       <c r="C76">
-        <v>-0.07643075826600132</v>
+        <v>0.0493306359808795</v>
       </c>
       <c r="D76">
-        <v>-0.03099433209204921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05314162825630041</v>
+      </c>
+      <c r="E76">
+        <v>-0.007619411836447822</v>
+      </c>
+      <c r="F76">
+        <v>-0.03553190007791855</v>
+      </c>
+      <c r="G76">
+        <v>-0.02074645008781523</v>
+      </c>
+      <c r="H76">
+        <v>-0.2173305782963735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1151549091512727</v>
+        <v>0.1012306398882873</v>
       </c>
       <c r="C77">
-        <v>-0.007386772605639531</v>
+        <v>-0.02337163123545738</v>
       </c>
       <c r="D77">
-        <v>-0.09123926575330951</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04121907725065872</v>
+      </c>
+      <c r="E77">
+        <v>-0.03866947506167821</v>
+      </c>
+      <c r="F77">
+        <v>-0.1039877772152816</v>
+      </c>
+      <c r="G77">
+        <v>-0.823527585455827</v>
+      </c>
+      <c r="H77">
+        <v>0.3251359850470217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1062930332914381</v>
+        <v>0.1509044192278403</v>
       </c>
       <c r="C78">
-        <v>-0.0342632274024104</v>
+        <v>0.02819574805483481</v>
       </c>
       <c r="D78">
-        <v>-0.09208863677175962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08046188745363575</v>
+      </c>
+      <c r="E78">
+        <v>-0.04900263952372972</v>
+      </c>
+      <c r="F78">
+        <v>-0.05698876485794623</v>
+      </c>
+      <c r="G78">
+        <v>-0.05223420569466072</v>
+      </c>
+      <c r="H78">
+        <v>0.07663482076921153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1497555731027949</v>
+        <v>0.1486336812571493</v>
       </c>
       <c r="C79">
-        <v>-0.06511971185781947</v>
+        <v>0.03089171547392565</v>
       </c>
       <c r="D79">
-        <v>-0.02110292347189796</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03947938484548575</v>
+      </c>
+      <c r="E79">
+        <v>0.02164038282612791</v>
+      </c>
+      <c r="F79">
+        <v>-0.01760453991757358</v>
+      </c>
+      <c r="G79">
+        <v>-0.01420193608412346</v>
+      </c>
+      <c r="H79">
+        <v>-0.1620492072492771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0410069695421567</v>
+        <v>0.04175747492905183</v>
       </c>
       <c r="C80">
-        <v>-0.01888176647146433</v>
+        <v>0.01123053320337647</v>
       </c>
       <c r="D80">
-        <v>-0.03176704158085871</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01684972030617785</v>
+      </c>
+      <c r="E80">
+        <v>0.0292961366903381</v>
+      </c>
+      <c r="F80">
+        <v>-0.002422142221340813</v>
+      </c>
+      <c r="G80">
+        <v>0.02259630112122712</v>
+      </c>
+      <c r="H80">
+        <v>-0.03816190233228016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1232877523185866</v>
+        <v>0.1249490820258144</v>
       </c>
       <c r="C81">
-        <v>-0.05524352648859424</v>
+        <v>0.02978904312615381</v>
       </c>
       <c r="D81">
-        <v>-0.03006508859517317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02993243868014276</v>
+      </c>
+      <c r="E81">
+        <v>-0.008462957384992097</v>
+      </c>
+      <c r="F81">
+        <v>-0.006953225816895859</v>
+      </c>
+      <c r="G81">
+        <v>0.0207468611726421</v>
+      </c>
+      <c r="H81">
+        <v>-0.1429170085841372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1337233896105369</v>
+        <v>0.1312526977741277</v>
       </c>
       <c r="C82">
-        <v>-0.06928447809559822</v>
+        <v>0.04108492487602704</v>
       </c>
       <c r="D82">
-        <v>-0.009242267937447401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03822988424604985</v>
+      </c>
+      <c r="E82">
+        <v>0.02365782606823002</v>
+      </c>
+      <c r="F82">
+        <v>-0.04111587056476645</v>
+      </c>
+      <c r="G82">
+        <v>0.006321877624263729</v>
+      </c>
+      <c r="H82">
+        <v>-0.2233780671096531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06794138507392948</v>
+        <v>0.08193036173003321</v>
       </c>
       <c r="C83">
-        <v>0.02990695544709748</v>
+        <v>-0.04117484770750651</v>
       </c>
       <c r="D83">
-        <v>-0.0153834449767815</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02012656806405899</v>
+      </c>
+      <c r="E83">
+        <v>-0.02075676117285508</v>
+      </c>
+      <c r="F83">
+        <v>-0.04618397689790865</v>
+      </c>
+      <c r="G83">
+        <v>0.07038808972711773</v>
+      </c>
+      <c r="H83">
+        <v>0.02442197765496008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02920691149055927</v>
+        <v>0.03647039923355341</v>
       </c>
       <c r="C84">
-        <v>-0.02936091572896802</v>
+        <v>0.02064687089511257</v>
       </c>
       <c r="D84">
-        <v>-0.0350913989986364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03565305742692603</v>
+      </c>
+      <c r="E84">
+        <v>-0.0253414553631114</v>
+      </c>
+      <c r="F84">
+        <v>0.04176984768029765</v>
+      </c>
+      <c r="G84">
+        <v>0.04979135295446433</v>
+      </c>
+      <c r="H84">
+        <v>-0.0351262613145105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1174918506208823</v>
+        <v>0.1209405936606615</v>
       </c>
       <c r="C85">
-        <v>-0.03958775656134712</v>
+        <v>0.01628146959522955</v>
       </c>
       <c r="D85">
-        <v>-0.05207272927480686</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03893043785633152</v>
+      </c>
+      <c r="E85">
+        <v>-0.01165027499370491</v>
+      </c>
+      <c r="F85">
+        <v>-0.03151611642743553</v>
+      </c>
+      <c r="G85">
+        <v>0.004794469385485995</v>
+      </c>
+      <c r="H85">
+        <v>-0.1455399780396584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05373479420652393</v>
+        <v>0.05705582979138085</v>
       </c>
       <c r="C86">
-        <v>-0.02056523152326185</v>
+        <v>0.00706272734332171</v>
       </c>
       <c r="D86">
-        <v>-0.0615172311747552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03382597933638777</v>
+      </c>
+      <c r="E86">
+        <v>-0.04427345465918497</v>
+      </c>
+      <c r="F86">
+        <v>-0.03529875053929426</v>
+      </c>
+      <c r="G86">
+        <v>0.04098699923083093</v>
+      </c>
+      <c r="H86">
+        <v>0.03413203504744312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1215831454776985</v>
+        <v>0.1244174806589614</v>
       </c>
       <c r="C87">
-        <v>-0.06719578067720684</v>
+        <v>0.03153562633212918</v>
       </c>
       <c r="D87">
-        <v>-0.07314718104611102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07129142994420157</v>
+      </c>
+      <c r="E87">
+        <v>-0.02050626839800814</v>
+      </c>
+      <c r="F87">
+        <v>-0.01908844336118416</v>
+      </c>
+      <c r="G87">
+        <v>-0.1275208732796432</v>
+      </c>
+      <c r="H87">
+        <v>0.07417399189078848</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05378686120471002</v>
+        <v>0.06227621124653518</v>
       </c>
       <c r="C88">
-        <v>-0.02757676292962055</v>
+        <v>0.01679530615046496</v>
       </c>
       <c r="D88">
-        <v>-0.02694559504667079</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03883902270504973</v>
+      </c>
+      <c r="E88">
+        <v>-0.008643320422507502</v>
+      </c>
+      <c r="F88">
+        <v>-0.01710576495150295</v>
+      </c>
+      <c r="G88">
+        <v>-0.01737183668380014</v>
+      </c>
+      <c r="H88">
+        <v>-0.04028419277219886</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08961339076800771</v>
+        <v>0.1077990728861441</v>
       </c>
       <c r="C89">
-        <v>-0.07551764747587719</v>
+        <v>0.122635822799882</v>
       </c>
       <c r="D89">
-        <v>0.332075924163546</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3383727645438541</v>
+      </c>
+      <c r="E89">
+        <v>-0.06225208523471173</v>
+      </c>
+      <c r="F89">
+        <v>-0.07286836952288678</v>
+      </c>
+      <c r="G89">
+        <v>0.02283073694748163</v>
+      </c>
+      <c r="H89">
+        <v>-0.01686642646768026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07037044410564872</v>
+        <v>0.08438673839409877</v>
       </c>
       <c r="C90">
-        <v>-0.06221881089602985</v>
+        <v>0.1008098390283194</v>
       </c>
       <c r="D90">
-        <v>0.2806499213988002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2786905095022151</v>
+      </c>
+      <c r="E90">
+        <v>-0.05086022498001583</v>
+      </c>
+      <c r="F90">
+        <v>-0.03912395654774135</v>
+      </c>
+      <c r="G90">
+        <v>-0.02060142564560712</v>
+      </c>
+      <c r="H90">
+        <v>0.001171766713118678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08961471176245324</v>
+        <v>0.09108297580541763</v>
       </c>
       <c r="C91">
-        <v>-0.04875874971416937</v>
+        <v>0.02555356789158054</v>
       </c>
       <c r="D91">
-        <v>-0.02058470116672107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03374935600994861</v>
+      </c>
+      <c r="E91">
+        <v>-0.006732000434591216</v>
+      </c>
+      <c r="F91">
+        <v>0.001777034471269883</v>
+      </c>
+      <c r="G91">
+        <v>0.02226263656854564</v>
+      </c>
+      <c r="H91">
+        <v>-0.08771970871735912</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07543460522510083</v>
+        <v>0.0878203941701121</v>
       </c>
       <c r="C92">
-        <v>-0.07733340023343782</v>
+        <v>0.1228282085243263</v>
       </c>
       <c r="D92">
-        <v>0.3404428662228886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3320482220648741</v>
+      </c>
+      <c r="E92">
+        <v>-0.04253030000357245</v>
+      </c>
+      <c r="F92">
+        <v>-0.03982607346542916</v>
+      </c>
+      <c r="G92">
+        <v>-0.01273292378751177</v>
+      </c>
+      <c r="H92">
+        <v>-0.01828803449935735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06635208939855805</v>
+        <v>0.08268852872664834</v>
       </c>
       <c r="C93">
-        <v>-0.06678689394121992</v>
+        <v>0.111456070605547</v>
       </c>
       <c r="D93">
-        <v>0.3009576692961558</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2948932564094505</v>
+      </c>
+      <c r="E93">
+        <v>-0.02405105792898311</v>
+      </c>
+      <c r="F93">
+        <v>-0.03447365821941312</v>
+      </c>
+      <c r="G93">
+        <v>-0.01701533837754848</v>
+      </c>
+      <c r="H93">
+        <v>0.0005686119666948316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1351107976383135</v>
+        <v>0.1294450705694941</v>
       </c>
       <c r="C94">
-        <v>-0.04248039835910458</v>
+        <v>0.008608387430731329</v>
       </c>
       <c r="D94">
-        <v>-0.04139774860334222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04978165417563619</v>
+      </c>
+      <c r="E94">
+        <v>0.01718838594107946</v>
+      </c>
+      <c r="F94">
+        <v>-0.01096977407096995</v>
+      </c>
+      <c r="G94">
+        <v>0.04579138253624474</v>
+      </c>
+      <c r="H94">
+        <v>-0.1120151211994661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1219486545882543</v>
+        <v>0.1292277161073549</v>
       </c>
       <c r="C95">
-        <v>-0.01858243686937269</v>
+        <v>-0.008327271139030267</v>
       </c>
       <c r="D95">
-        <v>-0.0530127765525721</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06075216978441408</v>
+      </c>
+      <c r="E95">
+        <v>-0.005487770618158713</v>
+      </c>
+      <c r="F95">
+        <v>-0.05178507451431243</v>
+      </c>
+      <c r="G95">
+        <v>-0.02193322560993846</v>
+      </c>
+      <c r="H95">
+        <v>0.07555742603405489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2186363176860013</v>
+        <v>0.1970431387992858</v>
       </c>
       <c r="C97">
-        <v>-0.03921568160768981</v>
+        <v>-0.004958666953722927</v>
       </c>
       <c r="D97">
-        <v>0.08561994616977718</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0699412121036514</v>
+      </c>
+      <c r="E97">
+        <v>0.06248627458695515</v>
+      </c>
+      <c r="F97">
+        <v>0.9290536120138919</v>
+      </c>
+      <c r="G97">
+        <v>-0.09131837625373462</v>
+      </c>
+      <c r="H97">
+        <v>0.01328261630249037</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2437287056354634</v>
+        <v>0.2722213738108121</v>
       </c>
       <c r="C98">
-        <v>-0.05124279208688012</v>
+        <v>0.01110500874478773</v>
       </c>
       <c r="D98">
-        <v>-0.02035202362960314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04858534035854614</v>
+      </c>
+      <c r="E98">
+        <v>0.1888732910526886</v>
+      </c>
+      <c r="F98">
+        <v>-0.03697001449670009</v>
+      </c>
+      <c r="G98">
+        <v>0.3023256481814033</v>
+      </c>
+      <c r="H98">
+        <v>0.2061845511496962</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3912819893982052</v>
+        <v>0.2547762171453373</v>
       </c>
       <c r="C99">
-        <v>0.9007329414232752</v>
+        <v>-0.9197138049574408</v>
       </c>
       <c r="D99">
-        <v>0.0699196354883395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2320837860598229</v>
+      </c>
+      <c r="E99">
+        <v>-0.06718757962964264</v>
+      </c>
+      <c r="F99">
+        <v>-0.0694599873154509</v>
+      </c>
+      <c r="G99">
+        <v>0.001299989166904277</v>
+      </c>
+      <c r="H99">
+        <v>-0.07583238272029828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04572271975868215</v>
+        <v>0.04760054466366606</v>
       </c>
       <c r="C101">
-        <v>-0.02909697963089092</v>
+        <v>0.02160563698137055</v>
       </c>
       <c r="D101">
-        <v>-0.007660132019549733</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0131793009803401</v>
+      </c>
+      <c r="E101">
+        <v>-0.05851376658828366</v>
+      </c>
+      <c r="F101">
+        <v>-0.01977152158036721</v>
+      </c>
+      <c r="G101">
+        <v>-0.017056935209124</v>
+      </c>
+      <c r="H101">
+        <v>-0.0733434341448157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
